--- a/data/input/absenteeism_data_9.xlsx
+++ b/data/input/absenteeism_data_9.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36241</v>
+        <v>65101</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fernando Cavalcanti</t>
+          <t>Alice da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>7598.66</v>
+        <v>10128.11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7292</v>
+        <v>37349</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabel Cavalcanti</t>
+          <t>Elisa Silveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,89 +519,89 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>3135.59</v>
+        <v>11143.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50437</v>
+        <v>5556</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Renan Dias</t>
+          <t>Ana Sophia das Neves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>9522.620000000001</v>
+        <v>4968.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35706</v>
+        <v>74207</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Otávio Cardoso</t>
+          <t>Marcela da Luz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>4031.89</v>
+        <v>10512.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81473</v>
+        <v>20133</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raquel das Neves</t>
+          <t>Srta. Maitê Souza</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,19 +613,19 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>5933.63</v>
+        <v>9111.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97326</v>
+        <v>13086</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Davi Lucas Novaes</t>
+          <t>Vitória Farias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,133 +635,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>10479.7</v>
+        <v>8165.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>39496</v>
+        <v>86520</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Felipe Martins</t>
+          <t>Leandro da Costa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>11849.82</v>
+        <v>10336.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91538</v>
+        <v>97451</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nina Fernandes</t>
+          <t>Pietro Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>4842.03</v>
+        <v>2711.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78192</v>
+        <v>16979</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sarah Gomes</t>
+          <t>Lorenzo Teixeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>8939.629999999999</v>
+        <v>11938.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>36842</v>
+        <v>8221</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Luiz Felipe Moraes</t>
+          <t>Davi Aragão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>8713.950000000001</v>
+        <v>7987.08</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_9.xlsx
+++ b/data/input/absenteeism_data_9.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>65101</v>
+        <v>81801</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice da Costa</t>
+          <t>Sr. Samuel Rodrigues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>10128.11</v>
+        <v>5051.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37349</v>
+        <v>7431</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elisa Silveira</t>
+          <t>Caroline Moura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>11143.97</v>
+        <v>11204.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5556</v>
+        <v>72555</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Sophia das Neves</t>
+          <t>Isabelly Pires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G4" t="n">
-        <v>4968.63</v>
+        <v>10007.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74207</v>
+        <v>87229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcela da Luz</t>
+          <t>João Almeida</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,184 +584,184 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>10512.16</v>
+        <v>4469.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20133</v>
+        <v>45899</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Maitê Souza</t>
+          <t>Benício Pereira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>9111.68</v>
+        <v>4826.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13086</v>
+        <v>46063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitória Farias</t>
+          <t>Lucca Alves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>8165.32</v>
+        <v>12080.67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86520</v>
+        <v>23541</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leandro da Costa</t>
+          <t>Maria Sophia Costela</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>10336.99</v>
+        <v>11768.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97451</v>
+        <v>31419</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietro Rocha</t>
+          <t>Rafaela Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>2711.25</v>
+        <v>5640.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16979</v>
+        <v>2598</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lorenzo Teixeira</t>
+          <t>Sr. Lucas Novaes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>11938.14</v>
+        <v>5247.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8221</v>
+        <v>57325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Aragão</t>
+          <t>Alícia Gonçalves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>7987.08</v>
+        <v>7569.13</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_9.xlsx
+++ b/data/input/absenteeism_data_9.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81801</v>
+        <v>762</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Samuel Rodrigues</t>
+          <t>Juliana Costela</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>5051.07</v>
+        <v>3590.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7431</v>
+        <v>20364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caroline Moura</t>
+          <t>Nina Barros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>11204.88</v>
+        <v>11979.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72555</v>
+        <v>64637</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabelly Pires</t>
+          <t>Ana Laura Souza</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,26 +548,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>10007.93</v>
+        <v>6703.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87229</v>
+        <v>7947</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Almeida</t>
+          <t>Pedro Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,138 +581,138 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>4469.16</v>
+        <v>9993.309999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45899</v>
+        <v>57615</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benício Pereira</t>
+          <t>Maria Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>4826.59</v>
+        <v>4727.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>46063</v>
+        <v>78677</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucca Alves</t>
+          <t>Maria Clara Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>12080.67</v>
+        <v>5320.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23541</v>
+        <v>20206</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Sophia Costela</t>
+          <t>Lavínia Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>11768.88</v>
+        <v>5930.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31419</v>
+        <v>80311</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rafaela Peixoto</t>
+          <t>Isis da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G9" t="n">
-        <v>5640.25</v>
+        <v>7192.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2598</v>
+        <v>93428</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Lucas Novaes</t>
+          <t>João Felipe Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>5247.39</v>
+        <v>6481.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>57325</v>
+        <v>16333</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alícia Gonçalves</t>
+          <t>Fernando Castro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>7569.13</v>
+        <v>4451.36</v>
       </c>
     </row>
   </sheetData>
